--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/PycharmProjects/meet48new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6151584A-F0EB-9A4B-9CDD-8431CE49E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AAC6EA-EF6E-9A4A-8E99-5A3CB0D0D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27940" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="340">
   <si>
     <t>No</t>
   </si>
@@ -767,289 +767,294 @@
     <t>8.18</t>
   </si>
   <si>
+    <t>陈琳</t>
+  </si>
+  <si>
+    <t>07.23</t>
+  </si>
+  <si>
+    <t>阿琳</t>
+  </si>
+  <si>
+    <t>运动类</t>
+  </si>
+  <si>
+    <t>黄怡慈</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>66、草莓包饭</t>
+  </si>
+  <si>
+    <t>何阳青青</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>青青</t>
+  </si>
+  <si>
+    <t>舌头特长</t>
+  </si>
+  <si>
+    <t>林佳怡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>加一、+1</t>
+  </si>
+  <si>
+    <t>当托尼</t>
+  </si>
+  <si>
+    <t>刘小涵</t>
+  </si>
+  <si>
+    <t>小涵、点点</t>
+  </si>
+  <si>
+    <t>钢琴</t>
+  </si>
+  <si>
+    <t>吕相宜</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>阿biu、小绿</t>
+  </si>
+  <si>
+    <t>羽毛球、脾气好</t>
+  </si>
+  <si>
+    <t>宋昕冉</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>冉冉</t>
+  </si>
+  <si>
+    <t>唱歌、拉丁舞、二胡</t>
+  </si>
+  <si>
+    <t>武博涵</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>小武</t>
+  </si>
+  <si>
+    <t>产粮</t>
+  </si>
+  <si>
+    <t>王睿琦</t>
+  </si>
+  <si>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>睿琦</t>
+  </si>
+  <si>
+    <t>唱歌、跳舞、画画</t>
+  </si>
+  <si>
+    <t>王依柳</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>网友、友友、16</t>
+  </si>
+  <si>
+    <t>特爱笑、运气特好、绘画、做梦</t>
+  </si>
+  <si>
+    <t>王悦垚</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>土土、垚垚、三土</t>
+  </si>
+  <si>
+    <t>食物拼装、音波攻击</t>
+  </si>
+  <si>
+    <t>谢天依</t>
+  </si>
+  <si>
+    <t>6.24</t>
+  </si>
+  <si>
+    <t>笨笨</t>
+  </si>
+  <si>
+    <t>击剑</t>
+  </si>
+  <si>
+    <t>熊紫轶</t>
+  </si>
+  <si>
+    <t>5.31</t>
+  </si>
+  <si>
+    <t>小熊</t>
+  </si>
+  <si>
+    <t>跳舞、表演、吃</t>
+  </si>
+  <si>
+    <t>杨冰怡</t>
+  </si>
+  <si>
+    <t>7.26</t>
+  </si>
+  <si>
+    <t>二水</t>
+  </si>
+  <si>
+    <t>舞蹈、体育</t>
+  </si>
+  <si>
+    <t>禹佳蔚</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>西米、Javy</t>
+  </si>
+  <si>
+    <t>闫娜</t>
+  </si>
+  <si>
+    <t>7.27</t>
+  </si>
+  <si>
+    <t>香菜、菜菜</t>
+  </si>
+  <si>
+    <t>唱歌、舞蹈、古筝</t>
+  </si>
+  <si>
+    <t>杨晔</t>
+  </si>
+  <si>
+    <t>社长、二毛、日华</t>
+  </si>
+  <si>
+    <t>琵琶</t>
+  </si>
+  <si>
+    <t>曾艾佳</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>狮子、艾瑞狮</t>
+  </si>
+  <si>
+    <t>创意策划、配音、和声</t>
+  </si>
+  <si>
+    <t>左婧媛</t>
+  </si>
+  <si>
+    <t>左左、左大侠</t>
+  </si>
+  <si>
+    <t>吃肉不长胖、手摇电风扇</t>
+  </si>
+  <si>
+    <t>张怡婷</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>千千、Kanon</t>
+  </si>
+  <si>
+    <t>自恋、特能吃、特能睡</t>
+  </si>
+  <si>
+    <t>梁怀方</t>
+  </si>
+  <si>
+    <t>蜗牛</t>
+  </si>
+  <si>
+    <t>情绪稳定、能吃能睡</t>
+  </si>
+  <si>
+    <t>潘瑛琪</t>
+  </si>
+  <si>
+    <t>星羽、羽羽</t>
+  </si>
+  <si>
+    <t>日语、唱歌、擅长脑补、短跑、立定跳远、耐力</t>
+  </si>
+  <si>
+    <t>王紫澍</t>
+  </si>
+  <si>
+    <t>8.26</t>
+  </si>
+  <si>
+    <t>紫薯、王子</t>
+  </si>
+  <si>
+    <t>薯拉拉搬家</t>
+  </si>
+  <si>
+    <t>徐诗琪</t>
+  </si>
+  <si>
+    <t>12.10</t>
+  </si>
+  <si>
+    <t>小七</t>
+  </si>
+  <si>
+    <t>钢琴、颜艺、讲段子、海豹式鼓掌</t>
+  </si>
+  <si>
+    <t>张瀚引</t>
+  </si>
+  <si>
+    <t>10.31</t>
+  </si>
+  <si>
+    <t>豆豆</t>
+  </si>
+  <si>
+    <t>交朋友、特能睡</t>
+  </si>
+  <si>
+    <t>5.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>虞宝</t>
-  </si>
-  <si>
-    <t>陈琳</t>
-  </si>
-  <si>
-    <t>07.23</t>
-  </si>
-  <si>
-    <t>阿琳</t>
-  </si>
-  <si>
-    <t>运动类</t>
-  </si>
-  <si>
-    <t>黄怡慈</t>
-  </si>
-  <si>
-    <t>9.10</t>
-  </si>
-  <si>
-    <t>66、草莓包饭</t>
-  </si>
-  <si>
-    <t>何阳青青</t>
-  </si>
-  <si>
-    <t>7.21</t>
-  </si>
-  <si>
-    <t>青青</t>
-  </si>
-  <si>
-    <t>舌头特长</t>
-  </si>
-  <si>
-    <t>林佳怡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>加一、+1</t>
-  </si>
-  <si>
-    <t>当托尼</t>
-  </si>
-  <si>
-    <t>刘小涵</t>
-  </si>
-  <si>
-    <t>小涵、点点</t>
-  </si>
-  <si>
-    <t>钢琴</t>
-  </si>
-  <si>
-    <t>吕相宜</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>阿biu、小绿</t>
-  </si>
-  <si>
-    <t>羽毛球、脾气好</t>
-  </si>
-  <si>
-    <t>宋昕冉</t>
-  </si>
-  <si>
-    <t>7.08</t>
-  </si>
-  <si>
-    <t>冉冉</t>
-  </si>
-  <si>
-    <t>唱歌、拉丁舞、二胡</t>
-  </si>
-  <si>
-    <t>武博涵</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>小武</t>
-  </si>
-  <si>
-    <t>产粮</t>
-  </si>
-  <si>
-    <t>王睿琦</t>
-  </si>
-  <si>
-    <t>12.15</t>
-  </si>
-  <si>
-    <t>睿琦</t>
-  </si>
-  <si>
-    <t>唱歌、跳舞、画画</t>
-  </si>
-  <si>
-    <t>王依柳</t>
-  </si>
-  <si>
-    <t>7.13</t>
-  </si>
-  <si>
-    <t>网友、友友、16</t>
-  </si>
-  <si>
-    <t>特爱笑、运气特好、绘画、做梦</t>
-  </si>
-  <si>
-    <t>王悦垚</t>
-  </si>
-  <si>
-    <t>11.24</t>
-  </si>
-  <si>
-    <t>土土、垚垚、三土</t>
-  </si>
-  <si>
-    <t>食物拼装、音波攻击</t>
-  </si>
-  <si>
-    <t>谢天依</t>
-  </si>
-  <si>
-    <t>6.24</t>
-  </si>
-  <si>
-    <t>笨笨</t>
-  </si>
-  <si>
-    <t>击剑</t>
-  </si>
-  <si>
-    <t>熊紫轶</t>
-  </si>
-  <si>
-    <t>5.31</t>
-  </si>
-  <si>
-    <t>小熊</t>
-  </si>
-  <si>
-    <t>跳舞、表演、吃</t>
-  </si>
-  <si>
-    <t>杨冰怡</t>
-  </si>
-  <si>
-    <t>7.26</t>
-  </si>
-  <si>
-    <t>二水</t>
-  </si>
-  <si>
-    <t>舞蹈、体育</t>
-  </si>
-  <si>
-    <t>禹佳蔚</t>
-  </si>
-  <si>
-    <t>6.07</t>
-  </si>
-  <si>
-    <t>西米、Javy</t>
-  </si>
-  <si>
-    <t>闫娜</t>
-  </si>
-  <si>
-    <t>7.27</t>
-  </si>
-  <si>
-    <t>香菜、菜菜</t>
-  </si>
-  <si>
-    <t>唱歌、舞蹈、古筝</t>
-  </si>
-  <si>
-    <t>杨晔</t>
-  </si>
-  <si>
-    <t>社长、二毛、日华</t>
-  </si>
-  <si>
-    <t>琵琶</t>
-  </si>
-  <si>
-    <t>曾艾佳</t>
-  </si>
-  <si>
-    <t>7.11</t>
-  </si>
-  <si>
-    <t>狮子、艾瑞狮</t>
-  </si>
-  <si>
-    <t>创意策划、配音、和声</t>
-  </si>
-  <si>
-    <t>左婧媛</t>
-  </si>
-  <si>
-    <t>左左、左大侠</t>
-  </si>
-  <si>
-    <t>吃肉不长胖、手摇电风扇</t>
-  </si>
-  <si>
-    <t>张怡婷</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>千千、Kanon</t>
-  </si>
-  <si>
-    <t>自恋、特能吃、特能睡</t>
-  </si>
-  <si>
-    <t>梁怀方</t>
-  </si>
-  <si>
-    <t>蜗牛</t>
-  </si>
-  <si>
-    <t>情绪稳定、能吃能睡</t>
-  </si>
-  <si>
-    <t>潘瑛琪</t>
-  </si>
-  <si>
-    <t>星羽、羽羽</t>
-  </si>
-  <si>
-    <t>日语、唱歌、擅长脑补、短跑、立定跳远、耐力</t>
-  </si>
-  <si>
-    <t>王紫澍</t>
-  </si>
-  <si>
-    <t>8.26</t>
-  </si>
-  <si>
-    <t>紫薯、王子</t>
-  </si>
-  <si>
-    <t>薯拉拉搬家</t>
-  </si>
-  <si>
-    <t>徐诗琪</t>
-  </si>
-  <si>
-    <t>12.10</t>
-  </si>
-  <si>
-    <t>小七</t>
-  </si>
-  <si>
-    <t>钢琴、颜艺、讲段子、海豹式鼓掌</t>
-  </si>
-  <si>
-    <t>张瀚引</t>
-  </si>
-  <si>
-    <t>10.31</t>
-  </si>
-  <si>
-    <t>豆豆</t>
-  </si>
-  <si>
-    <t>交朋友、特能睡</t>
-  </si>
-  <si>
-    <t>5.02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1069,7 +1074,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <charset val="134"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,7 +1167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1199,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1682,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14"/>
@@ -1914,7 +1926,7 @@
         <v>168</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>45</v>
@@ -3071,8 +3083,8 @@
       <c r="D61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>244</v>
+      <c r="E61" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>15</v>
@@ -3083,22 +3095,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" s="8">
         <v>165</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3106,16 +3118,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C63" s="8">
         <v>160</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>37</v>
@@ -3129,22 +3141,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C64" s="8">
         <v>163</v>
       </c>
       <c r="D64" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3152,22 +3164,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="8">
         <v>162</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>87</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3175,7 +3187,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C66" s="8">
         <v>163</v>
@@ -3184,13 +3196,13 @@
         <v>243</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3198,22 +3210,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C67" s="8">
         <v>172</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3221,22 +3233,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C68" s="8">
         <v>166</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3244,22 +3256,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C69" s="8">
         <v>162</v>
       </c>
       <c r="D69" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3267,22 +3279,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C70" s="8">
         <v>167</v>
       </c>
       <c r="D70" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3290,22 +3302,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C71" s="8">
         <v>168</v>
       </c>
       <c r="D71" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3313,22 +3325,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C72" s="8">
         <v>168</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3336,22 +3348,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C73" s="8">
         <v>168</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3359,22 +3371,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" s="8">
         <v>165</v>
       </c>
       <c r="D74" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>179</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3382,22 +3394,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C75" s="8">
         <v>165</v>
       </c>
       <c r="D75" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3405,16 +3417,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C76" s="8">
         <v>172</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>179</v>
@@ -3428,22 +3440,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C77" s="8">
         <v>166</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3451,7 +3463,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C78" s="8">
         <v>168</v>
@@ -3460,13 +3472,13 @@
         <v>131</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>92</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3474,22 +3486,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C79" s="8">
         <v>162</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3497,7 +3509,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C80" s="8">
         <v>166</v>
@@ -3506,13 +3518,13 @@
         <v>13</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3520,22 +3532,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C81" s="8">
-        <v>163</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3543,22 +3555,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C82" s="9">
         <v>162</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3566,7 +3578,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C83" s="9">
         <v>164</v>
@@ -3575,13 +3587,13 @@
         <v>123</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3589,22 +3601,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C84" s="9">
         <v>170</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3612,22 +3624,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C85" s="9">
         <v>161</v>
       </c>
       <c r="D85" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3635,22 +3647,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C86" s="9">
         <v>164</v>
       </c>
       <c r="D86" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>336</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
